--- a/期中成績 - 匿名.xlsx
+++ b/期中成績 - 匿名.xlsx
@@ -5,22 +5,27 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Others\111上\3.123財金三、資工三-金融大數據分析-S409-教育部計畫 - 補助人工智慧技術與應用領域系列課程\期中考試_47份\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\S409\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3DD745-36B6-463B-A37A-B7BB1487757E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4019D2BF-EB72-4E2D-8565-CAAF66823320}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="6864" tabRatio="212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500" tabRatio="212" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="學員名單" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="TEST">工作表1!$A$2:$C$48</definedName>
+    <definedName name="TEST2">工作表1!$B$2:$C$48</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="158">
   <si>
     <t>80D1A301 金融大數據分析_四技財金三甲等合開 - 學員名單</t>
   </si>
@@ -205,6 +210,298 @@
   </si>
   <si>
     <t>題目</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>學號</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>4A9G0123</t>
+  </si>
+  <si>
+    <t>朱勝智 / Zhu, Sheng-Zhi</t>
+  </si>
+  <si>
+    <t>4A9G0126</t>
+  </si>
+  <si>
+    <t>方冠傑 / Fang, Guan jie</t>
+  </si>
+  <si>
+    <t>4A9G0071</t>
+  </si>
+  <si>
+    <t>王冠哲 / Wang, Guan-Zhe</t>
+  </si>
+  <si>
+    <t>4A9G0035</t>
+  </si>
+  <si>
+    <t>賴彥霖 / Lai, Yan-Lin</t>
+  </si>
+  <si>
+    <t>4A9G0045</t>
+  </si>
+  <si>
+    <t>李侑霖 / Lee, Yu-Lin</t>
+  </si>
+  <si>
+    <t>4A9G0029</t>
+  </si>
+  <si>
+    <t>王博玄 / Wang, Po-Hsuan</t>
+  </si>
+  <si>
+    <t>4A980073</t>
+  </si>
+  <si>
+    <t>蔡欣妤 / Cai, Xin-Yu</t>
+  </si>
+  <si>
+    <t>4A980116</t>
+  </si>
+  <si>
+    <t>吳永霖 / Wu, Yong-Lin</t>
+  </si>
+  <si>
+    <t>4A980022</t>
+  </si>
+  <si>
+    <t>郭俊毅 / Guo, Jun-Yi</t>
+  </si>
+  <si>
+    <t>4A980104</t>
+  </si>
+  <si>
+    <t>林明憲 / Lin, Ming-Xian</t>
+  </si>
+  <si>
+    <t>4A980124</t>
+  </si>
+  <si>
+    <t>鍾佩妤 / Chung, Pei-Yu</t>
+  </si>
+  <si>
+    <t>4A980041</t>
+  </si>
+  <si>
+    <t>陳欣余 / Chen, Hsin-Yu</t>
+  </si>
+  <si>
+    <t>4A980047</t>
+  </si>
+  <si>
+    <t>徐郁婷 / Hsu, Xu-Ting</t>
+  </si>
+  <si>
+    <t>4A9G0060</t>
+  </si>
+  <si>
+    <t>李忠翰 / Lee, Chung-Han</t>
+  </si>
+  <si>
+    <t>4A980140</t>
+  </si>
+  <si>
+    <t>黃育暐 / Huang, Yu-Wei</t>
+  </si>
+  <si>
+    <t>4A980139</t>
+  </si>
+  <si>
+    <t>李修鋮 / Li, Xiu-Cheng</t>
+  </si>
+  <si>
+    <t>4A980107</t>
+  </si>
+  <si>
+    <t>顏嘉葳 / Yan, Jia-Wei</t>
+  </si>
+  <si>
+    <t>4A9G0903</t>
+  </si>
+  <si>
+    <t>周冠宇 / Chou, Guan-Yu</t>
+  </si>
+  <si>
+    <t>4A980141</t>
+  </si>
+  <si>
+    <t>許峻嘉 / Hsu, Chun-Chia</t>
+  </si>
+  <si>
+    <t>4A9G0011</t>
+  </si>
+  <si>
+    <t>蔡宗哲 / Tsai, Tsung-Che</t>
+  </si>
+  <si>
+    <t>4A9G0026</t>
+  </si>
+  <si>
+    <t>蔡博仰 / Tsai, Po-Yang</t>
+  </si>
+  <si>
+    <t>4A9G0081</t>
+  </si>
+  <si>
+    <t>吳誌軒 / Wu, Zhi-Xuan</t>
+  </si>
+  <si>
+    <t>4A980020</t>
+  </si>
+  <si>
+    <t>吳沁真 / Wu, Chin-Jhen</t>
+  </si>
+  <si>
+    <t>4A9G0128</t>
+  </si>
+  <si>
+    <t>李東翰 / Li, Dong-Han</t>
+  </si>
+  <si>
+    <t>4A980138</t>
+  </si>
+  <si>
+    <t>戴翔唯 / Dai, Xiang-Wei</t>
+  </si>
+  <si>
+    <t>4A9G0909</t>
+  </si>
+  <si>
+    <t>陳書彥 / Chen, Shu-Yan</t>
+  </si>
+  <si>
+    <t>4A9G0135</t>
+  </si>
+  <si>
+    <t>翁洛笙 / Weng, Luo-Sheng</t>
+  </si>
+  <si>
+    <t>4A9G0053</t>
+  </si>
+  <si>
+    <t>蕭駿彬 / Hsiao, Chun-Pin</t>
+  </si>
+  <si>
+    <t>4A9G0034</t>
+  </si>
+  <si>
+    <t>雷楲𨛵 / Lei, Wei-Hu</t>
+  </si>
+  <si>
+    <t>4A9G0057</t>
+  </si>
+  <si>
+    <t>徐翊翔 / Hsu, Yi-Hsiang</t>
+  </si>
+  <si>
+    <t>4A9G0048</t>
+  </si>
+  <si>
+    <t>洪學誠 / Hung, Hsueh-Cheng</t>
+  </si>
+  <si>
+    <t>4A980103</t>
+  </si>
+  <si>
+    <t>洪晨睿 / Hong, Chen-Rui</t>
+  </si>
+  <si>
+    <t>4A9G0144</t>
+  </si>
+  <si>
+    <t>蔡士煒 / Cai, Shi-Wei</t>
+  </si>
+  <si>
+    <t>4A980035</t>
+  </si>
+  <si>
+    <t>方晟竹 / Fang, Sheng-Zhu</t>
+  </si>
+  <si>
+    <t>4A980018</t>
+  </si>
+  <si>
+    <t>王紫宣 / Wang, Zi-Xuan</t>
+  </si>
+  <si>
+    <t>4A9G0038</t>
+  </si>
+  <si>
+    <t>楊詠翔 / Yang, Yong-Xiang</t>
+  </si>
+  <si>
+    <t>4A9G0102</t>
+  </si>
+  <si>
+    <t>李維祥 / Li, Wei hsiang</t>
+  </si>
+  <si>
+    <t>4A9G0052</t>
+  </si>
+  <si>
+    <t>洪誌駿 / Hung, Zhi-Jun</t>
+  </si>
+  <si>
+    <t>4A9G0014</t>
+  </si>
+  <si>
+    <t>陳昭宇 / Chen, Zhao-Yu</t>
+  </si>
+  <si>
+    <t>4A9G0072</t>
+  </si>
+  <si>
+    <t>范維仁 / Fan, Wei-Ren</t>
+  </si>
+  <si>
+    <t>4A980119</t>
+  </si>
+  <si>
+    <t>胡雅盈 / Hu, Ya-Ying</t>
+  </si>
+  <si>
+    <t>4A980053</t>
+  </si>
+  <si>
+    <t>朱育庭 / Chu, Yu-Ting</t>
+  </si>
+  <si>
+    <t>4A980077</t>
+  </si>
+  <si>
+    <t>林芊茹 / Lin, Chien-Ju</t>
+  </si>
+  <si>
+    <t>4A980071</t>
+  </si>
+  <si>
+    <t>凃雅鳳 / Tu, Ya feng</t>
+  </si>
+  <si>
+    <t>4A980043</t>
+  </si>
+  <si>
+    <t>黃玉宸 / Huang, Yu-Chen</t>
+  </si>
+  <si>
+    <t>4A980102</t>
+  </si>
+  <si>
+    <t>王璽喻 / Wang, Xi-Yu</t>
+  </si>
+  <si>
+    <t>4A980121</t>
+  </si>
+  <si>
+    <t>謝芝穎 / Xie, Zhi-Ying</t>
+  </si>
+  <si>
+    <t>姓名</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -212,7 +509,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,8 +546,21 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -263,8 +573,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD2B48C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAFAD2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -344,11 +672,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD2B48C"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFD2B48C"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFD2B48C"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD2B48C"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD2B48C"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD2B48C"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD2B48C"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -378,6 +755,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2534,34 +2935,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O49"/>
+  <dimension ref="A1:P50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="F3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="G39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="5" width="20" customWidth="1"/>
-    <col min="6" max="1024" width="11.5"/>
+    <col min="3" max="3" width="51.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="6" width="20" customWidth="1"/>
+    <col min="7" max="1025" width="11.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" customHeight="1">
+    <row r="1" spans="1:16" ht="15" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="8" t="s">
+      <c r="E1" s="6"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="9"/>
       <c r="H1" s="9"/>
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
@@ -2570,8 +2972,9 @@
       <c r="M1" s="9"/>
       <c r="N1" s="9"/>
       <c r="O1" s="9"/>
-    </row>
-    <row r="2" spans="1:15" ht="27.6">
+      <c r="P1" s="9"/>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>58</v>
       </c>
@@ -2579,65 +2982,69 @@
         <v>59</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>1</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>2</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>3</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>4</v>
       </c>
-      <c r="J2" s="1">
-        <v>5</v>
-      </c>
       <c r="K2" s="1">
+        <v>5</v>
+      </c>
+      <c r="L2" s="1">
         <v>6</v>
       </c>
-      <c r="L2" s="1">
+      <c r="M2" s="1">
         <v>7</v>
       </c>
-      <c r="M2" s="1">
+      <c r="N2" s="1">
         <v>8</v>
       </c>
-      <c r="N2" s="1">
+      <c r="O2" s="1">
         <v>9</v>
       </c>
-      <c r="O2" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <f>SUM(F3:O3)</f>
+        <f>SUM(G3:P3)</f>
         <v>75</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="3" t="str">
+        <f>VLOOKUP($D3,TEST2,2,FALSE)</f>
+        <v>王紫宣 / Wang, Zi-Xuan</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="E3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="2">
-        <v>10</v>
-      </c>
       <c r="G3" s="2">
         <v>10</v>
       </c>
@@ -2648,10 +3055,10 @@
         <v>10</v>
       </c>
       <c r="J3" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K3" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L3" s="2">
         <v>10</v>
@@ -2660,32 +3067,36 @@
         <v>10</v>
       </c>
       <c r="N3" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="2">
-        <f t="shared" ref="B4:B49" si="0">SUM(F4:O4)</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="3" t="s">
+        <f t="shared" ref="B4:B49" si="0">SUM(G4:P4)</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="str">
+        <f>VLOOKUP($D4,TEST2,2,FALSE)</f>
+        <v>吳沁真 / Wu, Chin-Jhen</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="E4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
       <c r="G4" s="2">
         <v>0</v>
       </c>
@@ -2713,8 +3124,11 @@
       <c r="O4" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -2722,16 +3136,17 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="3" t="str">
+        <f>VLOOKUP($D5,TEST2,2,FALSE)</f>
+        <v>郭俊毅 / Guo, Jun-Yi</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="E5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="2">
+        <v>5</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="2">
@@ -2756,13 +3171,16 @@
         <v>10</v>
       </c>
       <c r="N5" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O5" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -2770,18 +3188,19 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="3" t="str">
+        <f>VLOOKUP($D6,TEST2,2,FALSE)</f>
+        <v>方晟竹 / Fang, Sheng-Zhu</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="E6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="2">
-        <v>10</v>
-      </c>
       <c r="G6" s="2">
         <v>10</v>
       </c>
@@ -2792,10 +3211,10 @@
         <v>10</v>
       </c>
       <c r="J6" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K6" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L6" s="2">
         <v>10</v>
@@ -2807,10 +3226,13 @@
         <v>10</v>
       </c>
       <c r="O6" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>10</v>
+      </c>
+      <c r="P6" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -2818,16 +3240,17 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="3" t="str">
+        <f>VLOOKUP($D7,TEST2,2,FALSE)</f>
+        <v>陳欣余 / Chen, Hsin-Yu</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="E7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="2">
+        <v>5</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2">
@@ -2849,7 +3272,7 @@
         <v>10</v>
       </c>
       <c r="M7" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N7" s="2">
         <v>0</v>
@@ -2857,8 +3280,11 @@
       <c r="O7" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -2866,18 +3292,19 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="3" t="str">
+        <f>VLOOKUP($D8,TEST2,2,FALSE)</f>
+        <v>黃玉宸 / Huang, Yu-Chen</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="E8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="2">
-        <v>10</v>
-      </c>
       <c r="G8" s="2">
         <v>10</v>
       </c>
@@ -2888,7 +3315,7 @@
         <v>10</v>
       </c>
       <c r="J8" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K8" s="2">
         <v>5</v>
@@ -2897,16 +3324,19 @@
         <v>5</v>
       </c>
       <c r="M8" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N8" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>5</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -2914,20 +3344,21 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="3" t="str">
+        <f>VLOOKUP($D9,TEST2,2,FALSE)</f>
+        <v>徐郁婷 / Hsu, Xu-Ting</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="E9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="2">
-        <v>5</v>
-      </c>
       <c r="G9" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
@@ -2953,8 +3384,11 @@
       <c r="O9" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -2962,18 +3396,19 @@
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="3" t="str">
+        <f>VLOOKUP($D10,TEST2,2,FALSE)</f>
+        <v>朱育庭 / Chu, Yu-Ting</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="E10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="2">
-        <v>10</v>
-      </c>
       <c r="G10" s="2">
         <v>10</v>
       </c>
@@ -2984,10 +3419,10 @@
         <v>10</v>
       </c>
       <c r="J10" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K10" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L10" s="2">
         <v>10</v>
@@ -2996,13 +3431,16 @@
         <v>10</v>
       </c>
       <c r="N10" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O10" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -3010,18 +3448,19 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="3" t="str">
+        <f>VLOOKUP($D11,TEST2,2,FALSE)</f>
+        <v>凃雅鳳 / Tu, Ya feng</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="E11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="2">
-        <v>10</v>
-      </c>
       <c r="G11" s="2">
         <v>10</v>
       </c>
@@ -3032,7 +3471,7 @@
         <v>10</v>
       </c>
       <c r="J11" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K11" s="2">
         <v>5</v>
@@ -3044,13 +3483,16 @@
         <v>5</v>
       </c>
       <c r="N11" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O11" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -3058,18 +3500,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="3" t="str">
+        <f>VLOOKUP($D12,TEST2,2,FALSE)</f>
+        <v>蔡欣妤 / Cai, Xin-Yu</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="E12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="2">
-        <v>0</v>
-      </c>
       <c r="G12" s="2">
         <v>0</v>
       </c>
@@ -3097,8 +3540,11 @@
       <c r="O12" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -3106,18 +3552,19 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="3" t="str">
+        <f>VLOOKUP($D13,TEST2,2,FALSE)</f>
+        <v>林芊茹 / Lin, Chien-Ju</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="E13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F13" s="2">
-        <v>10</v>
-      </c>
       <c r="G13" s="2">
         <v>10</v>
       </c>
@@ -3131,13 +3578,13 @@
         <v>10</v>
       </c>
       <c r="K13" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L13" s="2">
         <v>5</v>
       </c>
       <c r="M13" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N13" s="2">
         <v>0</v>
@@ -3145,8 +3592,11 @@
       <c r="O13" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -3154,18 +3604,19 @@
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="3" t="str">
+        <f>VLOOKUP($D14,TEST2,2,FALSE)</f>
+        <v>王璽喻 / Wang, Xi-Yu</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="2">
-        <v>10</v>
-      </c>
       <c r="G14" s="2">
         <v>10</v>
       </c>
@@ -3179,7 +3630,7 @@
         <v>10</v>
       </c>
       <c r="K14" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L14" s="2">
         <v>5</v>
@@ -3188,13 +3639,16 @@
         <v>5</v>
       </c>
       <c r="N14" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O14" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -3202,17 +3656,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="3" t="str">
+        <f>VLOOKUP($D15,TEST2,2,FALSE)</f>
+        <v>洪晨睿 / Hong, Chen-Rui</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="E15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="2">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G15" s="2">
         <v>0</v>
@@ -3241,8 +3696,11 @@
       <c r="O15" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -3250,23 +3708,24 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="3" t="str">
+        <f>VLOOKUP($D16,TEST2,2,FALSE)</f>
+        <v>林明憲 / Lin, Ming-Xian</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="E16" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="2">
-        <v>10</v>
-      </c>
       <c r="G16" s="2">
         <v>10</v>
       </c>
       <c r="H16" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I16" s="2">
         <v>0</v>
@@ -3289,8 +3748,11 @@
       <c r="O16" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -3298,18 +3760,19 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="3" t="str">
+        <f>VLOOKUP($D17,TEST2,2,FALSE)</f>
+        <v>顏嘉葳 / Yan, Jia-Wei</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="E17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="2">
-        <v>10</v>
-      </c>
       <c r="G17" s="2">
         <v>10</v>
       </c>
@@ -3320,13 +3783,13 @@
         <v>10</v>
       </c>
       <c r="J17" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K17" s="2">
         <v>5</v>
       </c>
       <c r="L17" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M17" s="2">
         <v>0</v>
@@ -3337,8 +3800,11 @@
       <c r="O17" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -3346,16 +3812,17 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="3" t="str">
+        <f>VLOOKUP($D18,TEST2,2,FALSE)</f>
+        <v>吳永霖 / Wu, Yong-Lin</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="E18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="2">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2">
@@ -3371,22 +3838,25 @@
         <v>10</v>
       </c>
       <c r="K18" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L18" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M18" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N18" s="2">
         <v>10</v>
       </c>
       <c r="O18" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>10</v>
+      </c>
+      <c r="P18" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -3394,18 +3864,19 @@
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="3" t="str">
+        <f>VLOOKUP($D19,TEST2,2,FALSE)</f>
+        <v>胡雅盈 / Hu, Ya-Ying</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="E19" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="2">
-        <v>10</v>
-      </c>
       <c r="G19" s="2">
         <v>10</v>
       </c>
@@ -3419,22 +3890,25 @@
         <v>10</v>
       </c>
       <c r="K19" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L19" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M19" s="2">
         <v>10</v>
       </c>
       <c r="N19" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O19" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -3442,17 +3916,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="3" t="str">
+        <f>VLOOKUP($D20,TEST2,2,FALSE)</f>
+        <v>謝芝穎 / Xie, Zhi-Ying</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="E20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="2">
-        <v>0</v>
+        <v>5</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="G20" s="2">
         <v>0</v>
@@ -3481,8 +3956,11 @@
       <c r="O20" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -3490,16 +3968,17 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="3" t="str">
+        <f>VLOOKUP($D21,TEST2,2,FALSE)</f>
+        <v>鍾佩妤 / Chung, Pei-Yu</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="E21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="2">
+        <v>5</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2">
@@ -3515,22 +3994,25 @@
         <v>10</v>
       </c>
       <c r="K21" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L21" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M21" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N21" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O21" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>5</v>
+      </c>
+      <c r="P21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -3538,18 +4020,19 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="3" t="str">
+        <f>VLOOKUP($D22,TEST2,2,FALSE)</f>
+        <v>戴翔唯 / Dai, Xiang-Wei</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="E22" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="2">
-        <v>10</v>
-      </c>
       <c r="G22" s="2">
         <v>10</v>
       </c>
@@ -3560,16 +4043,16 @@
         <v>10</v>
       </c>
       <c r="J22" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K22" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L22" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M22" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N22" s="2">
         <v>0</v>
@@ -3577,8 +4060,11 @@
       <c r="O22" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -3586,18 +4072,19 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="3" t="str">
+        <f>VLOOKUP($D23,TEST2,2,FALSE)</f>
+        <v>李修鋮 / Li, Xiu-Cheng</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="E23" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F23" s="2">
-        <v>10</v>
-      </c>
       <c r="G23" s="2">
         <v>10</v>
       </c>
@@ -3608,7 +4095,7 @@
         <v>10</v>
       </c>
       <c r="J23" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K23" s="2">
         <v>0</v>
@@ -3625,8 +4112,11 @@
       <c r="O23" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -3634,16 +4124,17 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="3" t="str">
+        <f>VLOOKUP($D24,TEST2,2,FALSE)</f>
+        <v>黃育暐 / Huang, Yu-Wei</v>
+      </c>
+      <c r="D24" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="E24" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="2">
+        <v>5</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2">
@@ -3656,13 +4147,13 @@
         <v>10</v>
       </c>
       <c r="J24" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K24" s="2">
         <v>5</v>
       </c>
       <c r="L24" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M24" s="2">
         <v>0</v>
@@ -3673,8 +4164,11 @@
       <c r="O24" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -3682,20 +4176,21 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="3" t="str">
+        <f>VLOOKUP($D25,TEST2,2,FALSE)</f>
+        <v>許峻嘉 / Hsu, Chun-Chia</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="E25" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="2">
-        <v>10</v>
-      </c>
       <c r="G25" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H25" s="2">
         <v>0</v>
@@ -3713,16 +4208,19 @@
         <v>0</v>
       </c>
       <c r="M25" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N25" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O25" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:15">
+      <c r="P25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -3730,18 +4228,19 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="3" t="str">
+        <f>VLOOKUP($D26,TEST2,2,FALSE)</f>
+        <v>蔡宗哲 / Tsai, Tsung-Che</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="E26" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="F26" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F26" s="2">
-        <v>10</v>
-      </c>
       <c r="G26" s="2">
         <v>10</v>
       </c>
@@ -3755,22 +4254,25 @@
         <v>10</v>
       </c>
       <c r="K26" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L26" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M26" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N26" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O26" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:15">
+      <c r="P26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -3778,18 +4280,19 @@
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="3" t="str">
+        <f>VLOOKUP($D27,TEST2,2,FALSE)</f>
+        <v>陳昭宇 / Chen, Zhao-Yu</v>
+      </c>
+      <c r="D27" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="E27" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="F27" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F27" s="2">
-        <v>10</v>
-      </c>
       <c r="G27" s="2">
         <v>10</v>
       </c>
@@ -3800,10 +4303,10 @@
         <v>10</v>
       </c>
       <c r="J27" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K27" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L27" s="2">
         <v>10</v>
@@ -3815,10 +4318,13 @@
         <v>10</v>
       </c>
       <c r="O27" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
+        <v>10</v>
+      </c>
+      <c r="P27" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -3826,18 +4332,19 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="3" t="str">
+        <f>VLOOKUP($D28,TEST2,2,FALSE)</f>
+        <v>蔡博仰 / Tsai, Po-Yang</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="E28" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="F28" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="2">
-        <v>10</v>
-      </c>
       <c r="G28" s="2">
         <v>10</v>
       </c>
@@ -3865,8 +4372,11 @@
       <c r="O28" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="29" spans="1:15">
+      <c r="P28" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -3874,47 +4384,51 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="3" t="str">
+        <f>VLOOKUP($D29,TEST2,2,FALSE)</f>
+        <v>王博玄 / Wang, Po-Hsuan</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F29" s="2">
-        <v>5</v>
-      </c>
       <c r="G29" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H29" s="2">
         <v>10</v>
       </c>
       <c r="I29" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J29" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K29" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L29" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M29" s="2">
         <v>5</v>
       </c>
       <c r="N29" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O29" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:15">
+      <c r="P29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -3922,23 +4436,24 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="3" t="str">
+        <f>VLOOKUP($D30,TEST2,2,FALSE)</f>
+        <v>雷楲𨛵 / Lei, Wei-Hu</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="E30" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="F30" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="2">
-        <v>10</v>
-      </c>
       <c r="G30" s="2">
         <v>10</v>
       </c>
       <c r="H30" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I30" s="2">
         <v>0</v>
@@ -3961,8 +4476,11 @@
       <c r="O30" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:15">
+      <c r="P30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -3970,18 +4488,19 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="3" t="str">
+        <f>VLOOKUP($D31,TEST2,2,FALSE)</f>
+        <v>賴彥霖 / Lai, Yan-Lin</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="E31" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="F31" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F31" s="2">
-        <v>10</v>
-      </c>
       <c r="G31" s="2">
         <v>10</v>
       </c>
@@ -4009,8 +4528,11 @@
       <c r="O31" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="32" spans="1:15">
+      <c r="P31" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -4018,18 +4540,19 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="3" t="str">
+        <f>VLOOKUP($D32,TEST2,2,FALSE)</f>
+        <v>楊詠翔 / Yang, Yong-Xiang</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="E32" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="F32" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F32" s="2">
-        <v>10</v>
-      </c>
       <c r="G32" s="2">
         <v>10</v>
       </c>
@@ -4043,13 +4566,13 @@
         <v>10</v>
       </c>
       <c r="K32" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L32" s="2">
         <v>0</v>
       </c>
       <c r="M32" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N32" s="2">
         <v>10</v>
@@ -4057,8 +4580,11 @@
       <c r="O32" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="33" spans="1:15">
+      <c r="P32" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -4066,20 +4592,21 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="3" t="str">
+        <f>VLOOKUP($D33,TEST2,2,FALSE)</f>
+        <v>李侑霖 / Lee, Yu-Lin</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="E33" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="F33" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F33" s="2">
-        <v>10</v>
-      </c>
       <c r="G33" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H33" s="2">
         <v>0</v>
@@ -4105,8 +4632,11 @@
       <c r="O33" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:15">
+      <c r="P33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -4114,18 +4644,19 @@
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="3" t="str">
+        <f>VLOOKUP($D34,TEST2,2,FALSE)</f>
+        <v>洪學誠 / Hung, Hsueh-Cheng</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="E34" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="F34" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F34" s="2">
-        <v>10</v>
-      </c>
       <c r="G34" s="2">
         <v>10</v>
       </c>
@@ -4145,16 +4676,19 @@
         <v>10</v>
       </c>
       <c r="M34" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N34" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O34" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
+        <v>10</v>
+      </c>
+      <c r="P34" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -4162,18 +4696,19 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="3" t="str">
+        <f>VLOOKUP($D35,TEST2,2,FALSE)</f>
+        <v>洪誌駿 / Hung, Zhi-Jun</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="E35" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="F35" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F35" s="2">
-        <v>10</v>
-      </c>
       <c r="G35" s="2">
         <v>10</v>
       </c>
@@ -4184,25 +4719,28 @@
         <v>10</v>
       </c>
       <c r="J35" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K35" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L35" s="2">
         <v>0</v>
       </c>
       <c r="M35" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N35" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O35" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:15">
+      <c r="P35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -4210,18 +4748,19 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="3" t="str">
+        <f>VLOOKUP($D36,TEST2,2,FALSE)</f>
+        <v>蕭駿彬 / Hsiao, Chun-Pin</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="E36" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="F36" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F36" s="2">
-        <v>10</v>
-      </c>
       <c r="G36" s="2">
         <v>10</v>
       </c>
@@ -4244,13 +4783,16 @@
         <v>10</v>
       </c>
       <c r="N36" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O36" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:15">
+      <c r="P36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -4258,18 +4800,19 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="3" t="str">
+        <f>VLOOKUP($D37,TEST2,2,FALSE)</f>
+        <v>徐翊翔 / Hsu, Yi-Hsiang</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="E37" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="F37" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F37" s="2">
-        <v>10</v>
-      </c>
       <c r="G37" s="2">
         <v>10</v>
       </c>
@@ -4277,19 +4820,19 @@
         <v>10</v>
       </c>
       <c r="I37" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J37" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K37" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L37" s="2">
         <v>10</v>
       </c>
       <c r="M37" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N37" s="2">
         <v>0</v>
@@ -4297,8 +4840,11 @@
       <c r="O37" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:15">
+      <c r="P37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
       <c r="A38" s="2">
         <v>36</v>
       </c>
@@ -4306,23 +4852,24 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="3" t="str">
+        <f>VLOOKUP($D38,TEST2,2,FALSE)</f>
+        <v>李忠翰 / Lee, Chung-Han</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="E38" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="F38" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F38" s="2">
-        <v>10</v>
-      </c>
       <c r="G38" s="2">
         <v>10</v>
       </c>
       <c r="H38" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I38" s="2">
         <v>0</v>
@@ -4345,8 +4892,11 @@
       <c r="O38" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:15">
+      <c r="P38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
       <c r="A39" s="2">
         <v>37</v>
       </c>
@@ -4354,47 +4904,51 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="3" t="str">
+        <f>VLOOKUP($D39,TEST2,2,FALSE)</f>
+        <v>王冠哲 / Wang, Guan-Zhe</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="E39" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="F39" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F39" s="2">
-        <v>10</v>
-      </c>
       <c r="G39" s="2">
         <v>10</v>
       </c>
       <c r="H39" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I39" s="2">
         <v>0</v>
       </c>
       <c r="J39" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K39" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L39" s="2">
         <v>0</v>
       </c>
       <c r="M39" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N39" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O39" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:15">
+      <c r="P39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
       <c r="A40" s="2">
         <v>38</v>
       </c>
@@ -4402,23 +4956,24 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="3" t="str">
+        <f>VLOOKUP($D40,TEST2,2,FALSE)</f>
+        <v>范維仁 / Fan, Wei-Ren</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="E40" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="F40" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F40" s="2">
-        <v>0</v>
-      </c>
       <c r="G40" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H40" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I40" s="2">
         <v>0</v>
@@ -4441,8 +4996,11 @@
       <c r="O40" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:15">
+      <c r="P40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
       <c r="A41" s="2">
         <v>39</v>
       </c>
@@ -4450,18 +5008,19 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="3" t="str">
+        <f>VLOOKUP($D41,TEST2,2,FALSE)</f>
+        <v>吳誌軒 / Wu, Zhi-Xuan</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="E41" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="F41" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F41" s="2">
-        <v>0</v>
-      </c>
       <c r="G41" s="2">
         <v>0</v>
       </c>
@@ -4489,8 +5048,11 @@
       <c r="O41" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:15">
+      <c r="P41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
       <c r="A42" s="2">
         <v>40</v>
       </c>
@@ -4498,18 +5060,19 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="3" t="str">
+        <f>VLOOKUP($D42,TEST2,2,FALSE)</f>
+        <v>李維祥 / Li, Wei hsiang</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="E42" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="F42" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F42" s="2">
-        <v>10</v>
-      </c>
       <c r="G42" s="2">
         <v>10</v>
       </c>
@@ -4520,7 +5083,7 @@
         <v>10</v>
       </c>
       <c r="J42" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K42" s="2">
         <v>0</v>
@@ -4537,8 +5100,11 @@
       <c r="O42" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:15">
+      <c r="P42" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
       <c r="A43" s="2">
         <v>41</v>
       </c>
@@ -4546,18 +5112,19 @@
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="3" t="str">
+        <f>VLOOKUP($D43,TEST2,2,FALSE)</f>
+        <v>朱勝智 / Zhu, Sheng-Zhi</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="E43" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="F43" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F43" s="2">
-        <v>10</v>
-      </c>
       <c r="G43" s="2">
         <v>10</v>
       </c>
@@ -4568,10 +5135,10 @@
         <v>10</v>
       </c>
       <c r="J43" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K43" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L43" s="2">
         <v>10</v>
@@ -4583,10 +5150,13 @@
         <v>10</v>
       </c>
       <c r="O43" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15">
+        <v>10</v>
+      </c>
+      <c r="P43" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
       <c r="A44" s="2">
         <v>42</v>
       </c>
@@ -4594,18 +5164,19 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="3" t="str">
+        <f>VLOOKUP($D44,TEST2,2,FALSE)</f>
+        <v>方冠傑 / Fang, Guan jie</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="E44" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="3" t="s">
+      <c r="F44" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F44" s="2">
-        <v>10</v>
-      </c>
       <c r="G44" s="2">
         <v>10</v>
       </c>
@@ -4616,13 +5187,13 @@
         <v>10</v>
       </c>
       <c r="J44" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K44" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L44" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M44" s="2">
         <v>0</v>
@@ -4633,8 +5204,11 @@
       <c r="O44" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:15">
+      <c r="P44" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
       <c r="A45" s="2">
         <v>43</v>
       </c>
@@ -4642,47 +5216,51 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="3" t="str">
+        <f>VLOOKUP($D45,TEST2,2,FALSE)</f>
+        <v>李東翰 / Li, Dong-Han</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="E45" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="F45" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F45" s="2">
-        <v>10</v>
-      </c>
       <c r="G45" s="2">
         <v>10</v>
       </c>
       <c r="H45" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I45" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J45" s="2">
         <v>10</v>
       </c>
       <c r="K45" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L45" s="2">
         <v>0</v>
       </c>
       <c r="M45" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N45" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O45" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:15">
+      <c r="P45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
       <c r="A46" s="2">
         <v>44</v>
       </c>
@@ -4690,18 +5268,19 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="3" t="str">
+        <f>VLOOKUP($D46,TEST2,2,FALSE)</f>
+        <v>翁洛笙 / Weng, Luo-Sheng</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="E46" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E46" s="3" t="s">
+      <c r="F46" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F46" s="2">
-        <v>10</v>
-      </c>
       <c r="G46" s="2">
         <v>10</v>
       </c>
@@ -4715,22 +5294,25 @@
         <v>10</v>
       </c>
       <c r="K46" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L46" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M46" s="2">
         <v>10</v>
       </c>
       <c r="N46" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O46" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:15">
+      <c r="P46" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
       <c r="A47" s="2">
         <v>45</v>
       </c>
@@ -4738,18 +5320,19 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="3" t="str">
+        <f>VLOOKUP($D47,TEST2,2,FALSE)</f>
+        <v>蔡士煒 / Cai, Shi-Wei</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="E47" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="F47" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F47" s="2">
-        <v>10</v>
-      </c>
       <c r="G47" s="2">
         <v>10</v>
       </c>
@@ -4777,8 +5360,11 @@
       <c r="O47" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="1:15">
+      <c r="P47" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
       <c r="A48" s="2">
         <v>46</v>
       </c>
@@ -4786,18 +5372,19 @@
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="3" t="str">
+        <f>VLOOKUP($D48,TEST2,2,FALSE)</f>
+        <v>周冠宇 / Chou, Guan-Yu</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="E48" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="F48" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F48" s="2">
-        <v>10</v>
-      </c>
       <c r="G48" s="2">
         <v>10</v>
       </c>
@@ -4814,10 +5401,10 @@
         <v>10</v>
       </c>
       <c r="L48" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M48" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N48" s="2">
         <v>0</v>
@@ -4825,8 +5412,11 @@
       <c r="O48" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:15">
+      <c r="P48" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
       <c r="A49" s="2">
         <v>47</v>
       </c>
@@ -4834,29 +5424,30 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="3" t="str">
+        <f>VLOOKUP($D49,TEST2,2,FALSE)</f>
+        <v>陳書彥 / Chen, Shu-Yan</v>
+      </c>
+      <c r="D49" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="E49" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="F49" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F49" s="2">
-        <v>10</v>
-      </c>
       <c r="G49" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H49" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I49" s="2">
         <v>10</v>
       </c>
       <c r="J49" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K49" s="2">
         <v>0</v>
@@ -4873,14 +5464,20 @@
       <c r="O49" s="2">
         <v>0</v>
       </c>
+      <c r="P49" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="C50" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:O1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="G1:P1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="F3:O26">
+  <conditionalFormatting sqref="G3:P26">
     <cfRule type="cellIs" dxfId="183" priority="197" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -4891,7 +5488,7 @@
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27:I27">
+  <conditionalFormatting sqref="G27:J27">
     <cfRule type="cellIs" dxfId="180" priority="191" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -4902,7 +5499,7 @@
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J49:O49 I29 N29:O29 K29 H30:O30 K32:L32 G33:O33 M34 K35:L35 N35:O36 J37 M37:O37 H38:O38 H39:I39 N39:O39 K39:L39 F40 H40:O40 J41:O42 J43:J44 L44:O44 K45:L45 K46 N45:O46 M48:O48">
+  <conditionalFormatting sqref="K49:P49 J29 O29:P29 L29 I30:P30 L32:M32 H33:P33 N34 L35:M35 O35:P36 K37 N37:P37 I38:P38 I39:J39 O39:P39 L39:M39 G40 I40:P40 K41:P42 K43:K44 M44:P44 L45:M45 L46 O45:P46 N48:P48">
     <cfRule type="cellIs" dxfId="177" priority="188" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -4913,7 +5510,7 @@
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J27">
+  <conditionalFormatting sqref="K27">
     <cfRule type="cellIs" dxfId="174" priority="185" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -4924,7 +5521,7 @@
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K27:M27">
+  <conditionalFormatting sqref="L27:N27">
     <cfRule type="cellIs" dxfId="171" priority="182" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -4935,7 +5532,7 @@
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N27">
+  <conditionalFormatting sqref="O27">
     <cfRule type="cellIs" dxfId="168" priority="179" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -4946,7 +5543,7 @@
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O27">
+  <conditionalFormatting sqref="P27">
     <cfRule type="cellIs" dxfId="165" priority="176" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -4957,7 +5554,7 @@
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F28:O28">
+  <conditionalFormatting sqref="G28:P28">
     <cfRule type="cellIs" dxfId="162" priority="173" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -4968,7 +5565,7 @@
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
+  <conditionalFormatting sqref="G29">
     <cfRule type="cellIs" dxfId="159" priority="167" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -4979,7 +5576,7 @@
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
+  <conditionalFormatting sqref="H29">
     <cfRule type="cellIs" dxfId="156" priority="164" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -4990,7 +5587,7 @@
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
+  <conditionalFormatting sqref="I29">
     <cfRule type="cellIs" dxfId="153" priority="161" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -5001,7 +5598,7 @@
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L29">
+  <conditionalFormatting sqref="M29">
     <cfRule type="cellIs" dxfId="150" priority="158" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -5012,7 +5609,7 @@
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J29">
+  <conditionalFormatting sqref="K29">
     <cfRule type="cellIs" dxfId="147" priority="155" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -5023,7 +5620,7 @@
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M29">
+  <conditionalFormatting sqref="N29">
     <cfRule type="cellIs" dxfId="144" priority="152" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -5034,7 +5631,7 @@
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F30:G30">
+  <conditionalFormatting sqref="G30:H30">
     <cfRule type="cellIs" dxfId="141" priority="149" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -5045,7 +5642,7 @@
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F31:O31">
+  <conditionalFormatting sqref="G31:P31">
     <cfRule type="cellIs" dxfId="138" priority="146" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -5056,7 +5653,7 @@
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32:J32">
+  <conditionalFormatting sqref="G32:K32">
     <cfRule type="cellIs" dxfId="135" priority="143" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -5067,7 +5664,7 @@
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M32:O32">
+  <conditionalFormatting sqref="N32:P32">
     <cfRule type="cellIs" dxfId="132" priority="140" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -5078,7 +5675,7 @@
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F33">
+  <conditionalFormatting sqref="G33">
     <cfRule type="cellIs" dxfId="129" priority="137" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -5089,7 +5686,7 @@
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F34:K34">
+  <conditionalFormatting sqref="G34:L34">
     <cfRule type="cellIs" dxfId="126" priority="131" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -5100,7 +5697,7 @@
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L34">
+  <conditionalFormatting sqref="M34">
     <cfRule type="cellIs" dxfId="123" priority="128" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -5111,7 +5708,7 @@
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N34">
+  <conditionalFormatting sqref="O34">
     <cfRule type="cellIs" dxfId="120" priority="125" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -5122,7 +5719,7 @@
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O34">
+  <conditionalFormatting sqref="P34">
     <cfRule type="cellIs" dxfId="117" priority="122" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -5133,7 +5730,7 @@
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F35:I35">
+  <conditionalFormatting sqref="G35:J35">
     <cfRule type="cellIs" dxfId="114" priority="119" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -5144,7 +5741,7 @@
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M35">
+  <conditionalFormatting sqref="N35">
     <cfRule type="cellIs" dxfId="111" priority="116" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -5155,7 +5752,7 @@
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J35">
+  <conditionalFormatting sqref="K35">
     <cfRule type="cellIs" dxfId="108" priority="113" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -5166,7 +5763,7 @@
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F36:M36">
+  <conditionalFormatting sqref="G36:N36">
     <cfRule type="cellIs" dxfId="105" priority="110" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -5177,7 +5774,7 @@
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F37">
+  <conditionalFormatting sqref="G37">
     <cfRule type="cellIs" dxfId="102" priority="107" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -5188,7 +5785,7 @@
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G37">
+  <conditionalFormatting sqref="H37">
     <cfRule type="cellIs" dxfId="99" priority="104" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -5199,7 +5796,7 @@
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H37">
+  <conditionalFormatting sqref="I37">
     <cfRule type="cellIs" dxfId="96" priority="101" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -5210,7 +5807,7 @@
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I37">
+  <conditionalFormatting sqref="J37">
     <cfRule type="cellIs" dxfId="93" priority="98" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -5221,7 +5818,7 @@
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K37:L37">
+  <conditionalFormatting sqref="L37:M37">
     <cfRule type="cellIs" dxfId="90" priority="95" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -5232,7 +5829,7 @@
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F38">
+  <conditionalFormatting sqref="G38">
     <cfRule type="cellIs" dxfId="87" priority="92" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -5243,7 +5840,7 @@
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G38">
+  <conditionalFormatting sqref="H38">
     <cfRule type="cellIs" dxfId="84" priority="89" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -5254,7 +5851,7 @@
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F39">
+  <conditionalFormatting sqref="G39">
     <cfRule type="cellIs" dxfId="81" priority="86" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -5265,7 +5862,7 @@
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G39">
+  <conditionalFormatting sqref="H39">
     <cfRule type="cellIs" dxfId="78" priority="83" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -5276,7 +5873,7 @@
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M39">
+  <conditionalFormatting sqref="N39">
     <cfRule type="cellIs" dxfId="75" priority="80" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -5287,7 +5884,7 @@
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J39">
+  <conditionalFormatting sqref="K39">
     <cfRule type="cellIs" dxfId="72" priority="77" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -5298,7 +5895,7 @@
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G40">
+  <conditionalFormatting sqref="H40">
     <cfRule type="cellIs" dxfId="69" priority="74" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -5309,7 +5906,7 @@
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F42:I42">
+  <conditionalFormatting sqref="G42:J42">
     <cfRule type="cellIs" dxfId="66" priority="68" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -5320,7 +5917,7 @@
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41:I41">
+  <conditionalFormatting sqref="G41:J41">
     <cfRule type="cellIs" dxfId="63" priority="65" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -5331,7 +5928,7 @@
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F43:I43">
+  <conditionalFormatting sqref="G43:J43">
     <cfRule type="cellIs" dxfId="60" priority="62" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -5342,7 +5939,7 @@
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K43:M43">
+  <conditionalFormatting sqref="L43:N43">
     <cfRule type="cellIs" dxfId="57" priority="59" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -5353,7 +5950,7 @@
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N43">
+  <conditionalFormatting sqref="O43">
     <cfRule type="cellIs" dxfId="54" priority="56" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -5364,7 +5961,7 @@
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O43">
+  <conditionalFormatting sqref="P43">
     <cfRule type="cellIs" dxfId="51" priority="53" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -5375,7 +5972,7 @@
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F44:I44">
+  <conditionalFormatting sqref="G44:J44">
     <cfRule type="cellIs" dxfId="48" priority="50" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -5386,7 +5983,7 @@
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K44">
+  <conditionalFormatting sqref="L44">
     <cfRule type="cellIs" dxfId="45" priority="47" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -5397,7 +5994,7 @@
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
+  <conditionalFormatting sqref="I45">
     <cfRule type="cellIs" dxfId="42" priority="44" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -5408,7 +6005,7 @@
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F45:G45">
+  <conditionalFormatting sqref="G45:H45">
     <cfRule type="cellIs" dxfId="39" priority="41" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -5419,7 +6016,7 @@
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I45">
+  <conditionalFormatting sqref="J45">
     <cfRule type="cellIs" dxfId="36" priority="38" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -5430,7 +6027,7 @@
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J45">
+  <conditionalFormatting sqref="K45">
     <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -5441,7 +6038,7 @@
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M45">
+  <conditionalFormatting sqref="N45">
     <cfRule type="cellIs" dxfId="30" priority="32" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -5452,7 +6049,7 @@
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F46:J46">
+  <conditionalFormatting sqref="G46:K46">
     <cfRule type="cellIs" dxfId="27" priority="29" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -5463,7 +6060,7 @@
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L46:M46">
+  <conditionalFormatting sqref="M46:N46">
     <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -5474,7 +6071,7 @@
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F47:M47">
+  <conditionalFormatting sqref="G47:N47">
     <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -5485,7 +6082,7 @@
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N47:O47">
+  <conditionalFormatting sqref="O47:P47">
     <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -5496,7 +6093,7 @@
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L48">
+  <conditionalFormatting sqref="M48">
     <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -5507,7 +6104,7 @@
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F48:K48">
+  <conditionalFormatting sqref="G48:L48">
     <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -5518,7 +6115,7 @@
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F49">
+  <conditionalFormatting sqref="G49">
     <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -5529,7 +6126,7 @@
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G49">
+  <conditionalFormatting sqref="H49">
     <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -5540,7 +6137,7 @@
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H49:I49">
+  <conditionalFormatting sqref="I49:J49">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -5551,7 +6148,7 @@
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B1048576">
+  <conditionalFormatting sqref="B1:C1 B51:C1048576 B2:B50">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -5563,4 +6160,554 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D80B50B3-4F94-488C-A4BC-F1E6D3AAED3A}">
+  <dimension ref="A1:C48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18.75">
+      <c r="A1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="37.5">
+      <c r="A2" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="37.5">
+      <c r="A3" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="37.5">
+      <c r="A4" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="37.5">
+      <c r="A5" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="37.5">
+      <c r="A6" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="37.5">
+      <c r="A7" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="37.5">
+      <c r="A8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="37.5">
+      <c r="A9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="37.5">
+      <c r="A10" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="37.5">
+      <c r="A11" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="37.5">
+      <c r="A12" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="37.5">
+      <c r="A13" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="37.5">
+      <c r="A14" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="37.5">
+      <c r="A15" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="37.5">
+      <c r="A16" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="37.5">
+      <c r="A17" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="37.5">
+      <c r="A18" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="37.5">
+      <c r="A19" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="37.5">
+      <c r="A20" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="37.5">
+      <c r="A21" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="37.5">
+      <c r="A22" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="37.5">
+      <c r="A23" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="37.5">
+      <c r="A24" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="37.5">
+      <c r="A25" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="37.5">
+      <c r="A26" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="37.5">
+      <c r="A27" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="37.5">
+      <c r="A28" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="37.5">
+      <c r="A29" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="37.5">
+      <c r="A30" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="37.5">
+      <c r="A31" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="37.5">
+      <c r="A32" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="37.5">
+      <c r="A33" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="37.5">
+      <c r="A34" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="37.5">
+      <c r="A35" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="37.5">
+      <c r="A36" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="37.5">
+      <c r="A37" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="37.5">
+      <c r="A38" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="37.5">
+      <c r="A39" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="37.5">
+      <c r="A40" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="37.5">
+      <c r="A41" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="37.5">
+      <c r="A42" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="37.5">
+      <c r="A43" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="37.5">
+      <c r="A44" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="37.5">
+      <c r="A45" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="37.5">
+      <c r="A46" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="37.5">
+      <c r="A47" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="38.25" thickBot="1">
+      <c r="A48" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>